--- a/Question_Set2/Programming skills/HTML5.xlsx
+++ b/Question_Set2/Programming skills/HTML5.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'How do you create the formatted text below?', 'ques_type': 2, 'options': ['&amp;ltp&amp;gtThis is a &amp;ltmark&amp;gtFormatted&amp;lt/mark&amp;gt text&amp;lt/p&amp;gt', '&amp;ltp&amp;gtThis is a &amp;lthighlight&amp;gtFormatted&amp;lt/highlight&amp;gt text&amp;lt/p&amp;gt', '&amp;ltp&amp;gtThis is a &amp;ltcolor&amp;gtFormatted&amp;lt/color&amp;gt text&amp;lt/p&amp;gt', '&amp;ltp&amp;gtThis is a &amp;ltem&amp;gtFormatted&amp;lt/em&amp;gt text&amp;lt/p&amp;gt'], 'score': '&amp;ltp&amp;gtThis is a &amp;ltmark&amp;gtFormatted&amp;lt/mark&amp;gt text&amp;lt/p&amp;gt'}, {'title': 'How do you place an image and its caption, as shown below?', 'ques_type': 2, 'options': ['&amp;ltimgsource&amp;gt\n&amp;ltimg src="flower.jpeg" alt="flower" width="100" height="100"&amp;gt\n&amp;ltfigcaption&amp;gtFig.1 - Flower.&amp;lt/figcaption&amp;gt\n&amp;lt/imgsource&amp;gt\n', '&amp;ltimg src="flower.jpeg" alt="flower" width="100" height="100"&amp;gt\n&amp;ltfigcaption&amp;gtFig.1 - Flower.&amp;lt/figcaption&amp;gt\n', '&amp;ltfigure&amp;gt\n&amp;ltimg src="flower.jpeg" alt="flower" width="100" height="100"&amp;gt\n&amp;lt/figure&amp;gt\n&amp;ltfigcaption&amp;gtFig.1 - Flower.&amp;lt/figcaption&amp;gt\n', '&amp;ltfigure&amp;gt\n&amp;ltimg src="flower.jpeg" alt="flower" width="100" height="100"&amp;gt\n&amp;ltfigcaption&amp;gtFig.1 - Flower.&amp;lt/figcaption&amp;gt\n&amp;lt/figure&amp;gt\n'], 'score': '&amp;ltfigure&amp;gt\n&amp;ltimg src="flower.jpeg" alt="flower" width="100" height="100"&amp;gt\n&amp;ltfigcaption&amp;gtFig.1 - Flower.&amp;lt/figcaption&amp;gt\n&amp;lt/figure&amp;gt'}, {'title': 'Which of the following elements can be used to draw a rectangle, like the one seen above?', 'ques_type': 2, 'options': ['&amp;ltcanvas&amp;gt', '&amp;ltrectangle&amp;gt', '&amp;ltshape&amp;gt', '&amp;ltcontainer&amp;gt'], 'score': '&amp;ltcanvas&amp;gt'}, {'title': 'Assume that you are going to draw a line like the one shown below with a Canvas using the following code: var c= document.getElementById("canvas")\nvar ctx= c.______("2d")\nctx.moveTo(0, 0)\nctx.lineTo(200, 100)\nctx.______()\n What should be written in the two blank spaces?', 'ques_type': 2, 'options': ['getContext, stroke', 'getObject, stroke', 'getObject, draw', 'getContext, draw'], 'score': 'getContext, stroke'}]</t>
+    <t>questions = [
+    {
+        "title": "How do you create the formatted text below?",
+        "ques_type": 2,
+        "options": [
+            "&amp;ltp&amp;gtThis is a &amp;ltmark&amp;gtFormatted&amp;lt/mark&amp;gt text&amp;lt/p&amp;gt",
+            "&amp;ltp&amp;gtThis is a &amp;lthighlight&amp;gtFormatted&amp;lt/highlight&amp;gt text&amp;lt/p&amp;gt",
+            "&amp;ltp&amp;gtThis is a &amp;ltcolor&amp;gtFormatted&amp;lt/color&amp;gt text&amp;lt/p&amp;gt",
+            "&amp;ltp&amp;gtThis is a &amp;ltem&amp;gtFormatted&amp;lt/em&amp;gt text&amp;lt/p&amp;gt"
+        ],
+        "score": "&amp;ltp&amp;gtThis is a &amp;ltmark&amp;gtFormatted&amp;lt/mark&amp;gt text&amp;lt/p&amp;gt"
+    },
+    {
+        "title": "How do you place an image and its caption, as shown below?",
+        "ques_type": 2,
+        "options": [
+            "&amp;ltimgsource&amp;gt\n&amp;ltimg src=\"flower.jpeg\" alt=\"flower\" width=\"100\" height=\"100\"&amp;gt\n&amp;ltfigcaption&amp;gtFig.1 - Flower.&amp;lt/figcaption&amp;gt\n&amp;lt/imgsource&amp;gt\n",
+            "&amp;ltimg src=\"flower.jpeg\" alt=\"flower\" width=\"100\" height=\"100\"&amp;gt\n&amp;ltfigcaption&amp;gtFig.1 - Flower.&amp;lt/figcaption&amp;gt\n",
+            "&amp;ltfigure&amp;gt\n&amp;ltimg src=\"flower.jpeg\" alt=\"flower\" width=\"100\" height=\"100\"&amp;gt\n&amp;lt/figure&amp;gt\n&amp;ltfigcaption&amp;gtFig.1 - Flower.&amp;lt/figcaption&amp;gt\n",
+            "&amp;ltfigure&amp;gt\n&amp;ltimg src=\"flower.jpeg\" alt=\"flower\" width=\"100\" height=\"100\"&amp;gt\n&amp;ltfigcaption&amp;gtFig.1 - Flower.&amp;lt/figcaption&amp;gt\n&amp;lt/figure&amp;gt\n"
+        ],
+        "score": "&amp;ltfigure&amp;gt\n&amp;ltimg src=\"flower.jpeg\" alt=\"flower\" width=\"100\" height=\"100\"&amp;gt\n&amp;ltfigcaption&amp;gtFig.1 - Flower.&amp;lt/figcaption&amp;gt\n&amp;lt/figure&amp;gt"
+    },
+    {
+        "title": "Which of the following elements can be used to draw a rectangle, like the one seen above?",
+        "ques_type": 2,
+        "options": [
+            "&amp;ltcanvas&amp;gt",
+            "&amp;ltrectangle&amp;gt",
+            "&amp;ltshape&amp;gt",
+            "&amp;ltcontainer&amp;gt"
+        ],
+        "score": "&amp;ltcanvas&amp;gt"
+    },
+    {
+        "title": "Assume that you are going to draw a line like the one shown below with a Canvas using the following code: var c= document.getElementById(\"canvas\")\nvar ctx= c.______(\"2d\")\nctx.moveTo(0, 0)\nctx.lineTo(200, 100)\nctx.______()\n What should be written in the two blank spaces?",
+        "ques_type": 2,
+        "options": [
+            "getContext, stroke",
+            "getObject, stroke",
+            "getObject, draw",
+            "getContext, draw"
+        ],
+        "score": "getContext, stroke"
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
